--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Itgb7</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Itgb7</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H2">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I2">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J2">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N2">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O2">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P2">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q2">
-        <v>0.001879111722222222</v>
+        <v>1.263606466824</v>
       </c>
       <c r="R2">
-        <v>0.0169120055</v>
+        <v>11.372458201416</v>
       </c>
       <c r="S2">
-        <v>2.710250271097495E-05</v>
+        <v>0.008177888386903318</v>
       </c>
       <c r="T2">
-        <v>2.710250271097494E-05</v>
+        <v>0.008177888386903318</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H3">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I3">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J3">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.557081</v>
       </c>
       <c r="O3">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P3">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q3">
-        <v>0.002569002944444444</v>
+        <v>0.9311778021858889</v>
       </c>
       <c r="R3">
-        <v>0.0231210265</v>
+        <v>8.380600219672999</v>
       </c>
       <c r="S3">
-        <v>3.705283110254272E-05</v>
+        <v>0.006026455494310786</v>
       </c>
       <c r="T3">
-        <v>3.705283110254272E-05</v>
+        <v>0.006026455494310784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H4">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I4">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J4">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N4">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O4">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P4">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q4">
-        <v>0.03513733672222222</v>
+        <v>22.68862056498567</v>
       </c>
       <c r="R4">
-        <v>0.3162360305</v>
+        <v>204.197585084871</v>
       </c>
       <c r="S4">
-        <v>0.0005067871976469145</v>
+        <v>0.146837651994302</v>
       </c>
       <c r="T4">
-        <v>0.0005067871976469145</v>
+        <v>0.146837651994302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H5">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I5">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J5">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N5">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O5">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P5">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q5">
-        <v>0.001132180833333333</v>
+        <v>0.2151416769578889</v>
       </c>
       <c r="R5">
-        <v>0.0101896275</v>
+        <v>1.936275092621</v>
       </c>
       <c r="S5">
-        <v>1.632948895047219E-05</v>
+        <v>0.001392367535087869</v>
       </c>
       <c r="T5">
-        <v>1.632948895047219E-05</v>
+        <v>0.001392367535087869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H6">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I6">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J6">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N6">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O6">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P6">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q6">
-        <v>0.01606304266666667</v>
+        <v>5.816652019488999</v>
       </c>
       <c r="R6">
-        <v>0.144567384</v>
+        <v>52.34986817540099</v>
       </c>
       <c r="S6">
-        <v>0.0002316778998669647</v>
+        <v>0.0376445770496854</v>
       </c>
       <c r="T6">
-        <v>0.0002316778998669647</v>
+        <v>0.03764457704968539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H7">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I7">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J7">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N7">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O7">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P7">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q7">
-        <v>0.02384515538888889</v>
+        <v>8.58170124885811</v>
       </c>
       <c r="R7">
-        <v>0.2146063985</v>
+        <v>77.235311239723</v>
       </c>
       <c r="S7">
-        <v>0.0003439196195352952</v>
+        <v>0.05553959783009357</v>
       </c>
       <c r="T7">
-        <v>0.0003439196195352952</v>
+        <v>0.05553959783009357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H8">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I8">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J8">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N8">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O8">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P8">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q8">
-        <v>0.2606579470598889</v>
+        <v>0.173793870432</v>
       </c>
       <c r="R8">
-        <v>2.345921523539</v>
+        <v>1.564144833888</v>
       </c>
       <c r="S8">
-        <v>0.003759479882586972</v>
+        <v>0.001124770181252002</v>
       </c>
       <c r="T8">
-        <v>0.003759479882586971</v>
+        <v>0.001124770181252002</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H9">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I9">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J9">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.557081</v>
       </c>
       <c r="O9">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P9">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q9">
-        <v>0.3563550935107778</v>
+        <v>0.1280723061737778</v>
       </c>
       <c r="R9">
-        <v>3.207195841597</v>
+        <v>1.152650755564</v>
       </c>
       <c r="S9">
-        <v>0.005139723611815894</v>
+        <v>0.0008288664650276308</v>
       </c>
       <c r="T9">
-        <v>0.005139723611815895</v>
+        <v>0.0008288664650276307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H10">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I10">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J10">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N10">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O10">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P10">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q10">
-        <v>4.874018903109889</v>
+        <v>3.120546852425333</v>
       </c>
       <c r="R10">
-        <v>43.866170127989</v>
+        <v>28.084921671828</v>
       </c>
       <c r="S10">
-        <v>0.07029816746534939</v>
+        <v>0.02019575281960889</v>
       </c>
       <c r="T10">
-        <v>0.07029816746534939</v>
+        <v>0.02019575281960889</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H11">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I11">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J11">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N11">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O11">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P11">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q11">
-        <v>0.1570486353883333</v>
+        <v>0.02959014986977778</v>
       </c>
       <c r="R11">
-        <v>1.413437718495</v>
+        <v>0.266311348828</v>
       </c>
       <c r="S11">
-        <v>0.002265118681359522</v>
+        <v>0.0001915034065906605</v>
       </c>
       <c r="T11">
-        <v>0.002265118681359522</v>
+        <v>0.0001915034065906605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H12">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I12">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J12">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N12">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O12">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P12">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q12">
-        <v>2.228159015514666</v>
+        <v>0.8000105206519998</v>
       </c>
       <c r="R12">
-        <v>20.053431139632</v>
+        <v>7.200094685867999</v>
       </c>
       <c r="S12">
-        <v>0.03213682563113084</v>
+        <v>0.005177558771667568</v>
       </c>
       <c r="T12">
-        <v>0.03213682563113084</v>
+        <v>0.005177558771667568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H13">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I13">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J13">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N13">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O13">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P13">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q13">
-        <v>3.307642210672555</v>
+        <v>1.180309783218222</v>
       </c>
       <c r="R13">
-        <v>29.768779896053</v>
+        <v>10.622788048964</v>
       </c>
       <c r="S13">
-        <v>0.04770625446137614</v>
+        <v>0.007638803632739796</v>
       </c>
       <c r="T13">
-        <v>0.04770625446137614</v>
+        <v>0.007638803632739796</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,14 +1272,14 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H14">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I14">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J14">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N14">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O14">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P14">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q14">
-        <v>0.1687777675724444</v>
+        <v>2.79806608224</v>
       </c>
       <c r="R14">
-        <v>1.518999908152</v>
+        <v>25.18259474016</v>
       </c>
       <c r="S14">
-        <v>0.002434288418878546</v>
+        <v>0.01810870134057781</v>
       </c>
       <c r="T14">
-        <v>0.002434288418878546</v>
+        <v>0.01810870134057781</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H15">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I15">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J15">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.557081</v>
       </c>
       <c r="O15">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P15">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q15">
-        <v>0.2307423112328889</v>
+        <v>2.061952904831111</v>
       </c>
       <c r="R15">
-        <v>2.076680801096</v>
+        <v>18.55757614348</v>
       </c>
       <c r="S15">
-        <v>0.003328005483532628</v>
+        <v>0.01334467744308289</v>
       </c>
       <c r="T15">
-        <v>0.003328005483532628</v>
+        <v>0.01334467744308289</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H16">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I16">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J16">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N16">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O16">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P16">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q16">
-        <v>3.155959903972444</v>
+        <v>50.24053083177333</v>
       </c>
       <c r="R16">
-        <v>28.403639135752</v>
+        <v>452.1647774859599</v>
       </c>
       <c r="S16">
-        <v>0.04551853455098939</v>
+        <v>0.3251498503910739</v>
       </c>
       <c r="T16">
-        <v>0.04551853455098939</v>
+        <v>0.3251498503910739</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H17">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I17">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J17">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N17">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O17">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P17">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q17">
-        <v>0.1016900439066667</v>
+        <v>0.4763988195511111</v>
       </c>
       <c r="R17">
-        <v>0.91521039516</v>
+        <v>4.28758937596</v>
       </c>
       <c r="S17">
-        <v>0.001466679526324442</v>
+        <v>0.003083188062287846</v>
       </c>
       <c r="T17">
-        <v>0.001466679526324442</v>
+        <v>0.003083188062287846</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H18">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I18">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J18">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N18">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O18">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P18">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q18">
-        <v>1.442747894997333</v>
+        <v>12.88009926764</v>
       </c>
       <c r="R18">
-        <v>12.984731054976</v>
+        <v>115.92089340876</v>
       </c>
       <c r="S18">
-        <v>0.0208088099674972</v>
+        <v>0.08335824245007294</v>
       </c>
       <c r="T18">
-        <v>0.0208088099674972</v>
+        <v>0.08335824245007292</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H19">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I19">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J19">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N19">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O19">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P19">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q19">
-        <v>2.141720498233778</v>
+        <v>19.00288406460889</v>
       </c>
       <c r="R19">
-        <v>19.275484484104</v>
+        <v>171.02595658148</v>
       </c>
       <c r="S19">
-        <v>0.03089011947671044</v>
+        <v>0.1229840690038826</v>
       </c>
       <c r="T19">
-        <v>0.03089011947671045</v>
+        <v>0.1229840690038826</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,14 +1644,14 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H20">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I20">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J20">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N20">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O20">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P20">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q20">
-        <v>0.49622425984</v>
+        <v>0.7078623205680001</v>
       </c>
       <c r="R20">
-        <v>4.46601833856</v>
+        <v>6.370760885112</v>
       </c>
       <c r="S20">
-        <v>0.007157062131282196</v>
+        <v>0.004581188212378601</v>
       </c>
       <c r="T20">
-        <v>0.007157062131282196</v>
+        <v>0.004581188212378602</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H21">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I21">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J21">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.557081</v>
       </c>
       <c r="O21">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P21">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q21">
-        <v>0.6784064883199999</v>
+        <v>0.5216384192567778</v>
       </c>
       <c r="R21">
-        <v>6.10565839488</v>
+        <v>4.694745773310999</v>
       </c>
       <c r="S21">
-        <v>0.009784683620137312</v>
+        <v>0.003375972569786458</v>
       </c>
       <c r="T21">
-        <v>0.009784683620137314</v>
+        <v>0.003375972569786458</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H22">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I22">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J22">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N22">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O22">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P22">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q22">
-        <v>9.278851651839998</v>
+        <v>12.70998528836633</v>
       </c>
       <c r="R22">
-        <v>83.50966486656</v>
+        <v>114.389867595297</v>
       </c>
       <c r="S22">
-        <v>0.1338292444641501</v>
+        <v>0.08225728802155641</v>
       </c>
       <c r="T22">
-        <v>0.1338292444641501</v>
+        <v>0.08225728802155641</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H23">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I23">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J23">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N23">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O23">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P23">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q23">
-        <v>0.2989793472</v>
+        <v>0.1205206610607778</v>
       </c>
       <c r="R23">
-        <v>2.6908141248</v>
+        <v>1.084685949547</v>
       </c>
       <c r="S23">
-        <v>0.004312190952877924</v>
+        <v>0.0007799932497560763</v>
       </c>
       <c r="T23">
-        <v>0.004312190952877924</v>
+        <v>0.0007799932497560764</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H24">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I24">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J24">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N24">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O24">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P24">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q24">
-        <v>4.24182945792</v>
+        <v>3.258442327223</v>
       </c>
       <c r="R24">
-        <v>38.17646512128</v>
+        <v>29.325980945007</v>
       </c>
       <c r="S24">
-        <v>0.061180074086715</v>
+        <v>0.02108819348967664</v>
       </c>
       <c r="T24">
-        <v>0.061180074086715</v>
+        <v>0.02108819348967664</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H25">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I25">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J25">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N25">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O25">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P25">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q25">
-        <v>6.296881895679999</v>
+        <v>4.807400974851222</v>
       </c>
       <c r="R25">
-        <v>56.67193706112</v>
+        <v>43.266608773661</v>
       </c>
       <c r="S25">
-        <v>0.09082017669845284</v>
+        <v>0.03111284219859833</v>
       </c>
       <c r="T25">
-        <v>0.09082017669845285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H26">
-        <v>2.381188</v>
-      </c>
-      <c r="I26">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J26">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.8672823333333333</v>
-      </c>
-      <c r="N26">
-        <v>2.601847</v>
-      </c>
-      <c r="O26">
-        <v>0.02330657204704962</v>
-      </c>
-      <c r="P26">
-        <v>0.02330657204704962</v>
-      </c>
-      <c r="Q26">
-        <v>0.6883874282484445</v>
-      </c>
-      <c r="R26">
-        <v>6.195486854236</v>
-      </c>
-      <c r="S26">
-        <v>0.009928639111590925</v>
-      </c>
-      <c r="T26">
-        <v>0.009928639111590925</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H27">
-        <v>2.381188</v>
-      </c>
-      <c r="I27">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J27">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.185693666666667</v>
-      </c>
-      <c r="N27">
-        <v>3.557081</v>
-      </c>
-      <c r="O27">
-        <v>0.03186327428311168</v>
-      </c>
-      <c r="P27">
-        <v>0.03186327428311169</v>
-      </c>
-      <c r="Q27">
-        <v>0.941119843580889</v>
-      </c>
-      <c r="R27">
-        <v>8.470078592228001</v>
-      </c>
-      <c r="S27">
-        <v>0.01357380873652331</v>
-      </c>
-      <c r="T27">
-        <v>0.01357380873652331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H28">
-        <v>2.381188</v>
-      </c>
-      <c r="I28">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J28">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>16.21723233333333</v>
-      </c>
-      <c r="N28">
-        <v>48.651697</v>
-      </c>
-      <c r="O28">
-        <v>0.4358074403843606</v>
-      </c>
-      <c r="P28">
-        <v>0.4358074403843607</v>
-      </c>
-      <c r="Q28">
-        <v>12.87209300844845</v>
-      </c>
-      <c r="R28">
-        <v>115.848837076036</v>
-      </c>
-      <c r="S28">
-        <v>0.1856547067062248</v>
-      </c>
-      <c r="T28">
-        <v>0.1856547067062248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H29">
-        <v>2.381188</v>
-      </c>
-      <c r="I29">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J29">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.522545</v>
-      </c>
-      <c r="N29">
-        <v>1.567635</v>
-      </c>
-      <c r="O29">
-        <v>0.01404240836258882</v>
-      </c>
-      <c r="P29">
-        <v>0.01404240836258882</v>
-      </c>
-      <c r="Q29">
-        <v>0.4147592944866667</v>
-      </c>
-      <c r="R29">
-        <v>3.732833650380001</v>
-      </c>
-      <c r="S29">
-        <v>0.005982089713076458</v>
-      </c>
-      <c r="T29">
-        <v>0.005982089713076458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H30">
-        <v>2.381188</v>
-      </c>
-      <c r="I30">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J30">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>7.413711999999999</v>
-      </c>
-      <c r="N30">
-        <v>22.241136</v>
-      </c>
-      <c r="O30">
-        <v>0.1992294852818897</v>
-      </c>
-      <c r="P30">
-        <v>0.1992294852818897</v>
-      </c>
-      <c r="Q30">
-        <v>5.884480683285333</v>
-      </c>
-      <c r="R30">
-        <v>52.960326149568</v>
-      </c>
-      <c r="S30">
-        <v>0.08487209769667968</v>
-      </c>
-      <c r="T30">
-        <v>0.08487209769667968</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H31">
-        <v>2.381188</v>
-      </c>
-      <c r="I31">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J31">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>11.00545633333333</v>
-      </c>
-      <c r="N31">
-        <v>33.016369</v>
-      </c>
-      <c r="O31">
-        <v>0.2957508196409994</v>
-      </c>
-      <c r="P31">
-        <v>0.2957508196409995</v>
-      </c>
-      <c r="Q31">
-        <v>8.735353518485779</v>
-      </c>
-      <c r="R31">
-        <v>78.61818166637201</v>
-      </c>
-      <c r="S31">
-        <v>0.1259903493849247</v>
-      </c>
-      <c r="T31">
-        <v>0.1259903493849247</v>
+        <v>0.03111284219859833</v>
       </c>
     </row>
   </sheetData>
